--- a/output/aggregate_tables/Analysis Group Statistics/Area 57_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 57_summary.xlsx
@@ -629,37 +629,37 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>72</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>84</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.30097087378641</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>49.51456310679612</v>
+        <v>49.35064935064935</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>72.81553398058253</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
   </sheetData>
@@ -792,37 +792,37 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>10</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.030927835051546</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>88.65979381443299</v>
+        <v>88.54166666666666</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.30927835051546</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>89.69072164948454</v>
+        <v>89.58333333333334</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.30927835051546</v>
+        <v>10.41666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -876,37 +876,37 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>72</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>84</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.30097087378641</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>49.51456310679612</v>
+        <v>49.35064935064935</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>72.81553398058253</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
   </sheetData>
@@ -977,13 +977,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>19</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>20</v>
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>19</v>
@@ -1176,31 +1176,31 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>10</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.030927835051546</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>88.65979381443299</v>
+        <v>88.54166666666666</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.30927835051546</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>89.69072164948454</v>
+        <v>89.58333333333334</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>10.30927835051546</v>
+        <v>10.41666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>20</v>
@@ -1268,31 +1268,31 @@
         <v>72</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>84</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>84</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>23.30097087378641</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>49.51456310679612</v>
+        <v>49.35064935064935</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>72.81553398058253</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
   </sheetData>
@@ -1502,49 +1502,71 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>72</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>84</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>84</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.30097087378641</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>49.51456310679612</v>
+        <v>49.35064935064935</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>72.81553398058253</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>27.18446601941747</v>
-      </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>51.92307692307693</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>36.53846153846153</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>63.46153846153846</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>36.53846153846153</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1663,34 +1685,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.4510648847948834</v>
+        <v>0.3376702808201255</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.841275751200541</v>
+        <v>2.680323361324219</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5700067097792357</v>
+        <v>0.6213451993842961</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.292340635995424</v>
+        <v>3.017993642144344</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.5700067097792357</v>
+        <v>0.6213451993842961</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.6785168296254</v>
+        <v>9.278341356044031</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>73.56344463189845</v>
+        <v>73.64863449203855</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>85.24196146152384</v>
+        <v>82.92697584808258</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
     </row>
   </sheetData>
@@ -1808,34 +1830,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.4510122547948834</v>
+        <v>0.3376176508201255</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.890500998189008</v>
+        <v>0.9168697195355986</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5540462071904595</v>
+        <v>0.5794580512052082</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.341513252983891</v>
+        <v>1.254487370355724</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.5540462071904595</v>
+        <v>0.5794580512052082</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>23.79309455971378</v>
+        <v>18.40936196087928</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.9782677303671</v>
+        <v>49.99438417067069</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.22863770991911</v>
+        <v>31.59625386845002</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>70.77136229008089</v>
+        <v>68.40374613154998</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>29.22863770991911</v>
+        <v>31.59625386845002</v>
       </c>
     </row>
     <row r="5">
@@ -1846,31 +1868,31 @@
         <v>5.263e-05</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.798624852706685</v>
+        <v>1.618859679341646</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>0.01472146333333334</v>
+        <v>0.03911255540332547</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.798677482706685</v>
+        <v>1.618912309341646</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>0.01472146333333334</v>
+        <v>0.03911255540332547</v>
       </c>
       <c r="G5" s="13" t="n">
-        <v>0.002902284691128223</v>
+        <v>0.003174258789423841</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>99.18528168522454</v>
+        <v>97.63784088911419</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8118160300843398</v>
+        <v>2.358984852096386</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>99.18818396991567</v>
+        <v>97.64101514790362</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.8118160300843398</v>
+        <v>2.358984852096386</v>
       </c>
     </row>
     <row r="6">
@@ -1881,31 +1903,31 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.1521499003048479</v>
+        <v>0.1445939624469739</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.001239039255442943</v>
+        <v>0.002774592775762415</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.1521499003048479</v>
+        <v>0.1445939624469739</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.001239039255442943</v>
+        <v>0.002774592775762415</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>99.19222385982013</v>
+        <v>98.11724233058483</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.8077761401798649</v>
+        <v>1.882757669415181</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>99.19222385982013</v>
+        <v>98.11724233058483</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.8077761401798649</v>
+        <v>1.882757669415181</v>
       </c>
     </row>
     <row r="7">
@@ -1915,34 +1937,34 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.4510648847948834</v>
+        <v>0.3376702808201255</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.841275751200541</v>
+        <v>2.680323361324219</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.5700067097792357</v>
+        <v>0.6213451993842961</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3.292340635995424</v>
+        <v>3.017993642144345</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.5700067097792357</v>
+        <v>0.6213451993842961</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.6785168296254</v>
+        <v>9.278341356044029</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>73.56344463189845</v>
+        <v>73.64863449203855</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>85.24196146152384</v>
+        <v>82.92697584808258</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
     </row>
   </sheetData>
@@ -2062,34 +2084,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.6785168296254</v>
+        <v>9.278341356044031</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>73.56344463189845</v>
+        <v>73.64863449203855</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>85.24196146152384</v>
+        <v>82.92697584808258</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>76.81229094059265</v>
+        <v>76.75709720864552</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.18770905940735</v>
+        <v>23.24290279135448</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>76.81229094059265</v>
+        <v>76.75709720864552</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>23.18770905940735</v>
+        <v>23.24290279135448</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 57_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 57_summary.xlsx
@@ -2102,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>76.75709720864552</v>
+        <v>75.45829115470066</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.24290279135448</v>
+        <v>24.54170884529933</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>76.75709720864552</v>
+        <v>75.45829115470066</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>23.24290279135448</v>
+        <v>24.54170884529933</v>
       </c>
     </row>
   </sheetData>
